--- a/src/main/resources/xlsx/analysis/stat_party_branch_info.xlsx
+++ b/src/main/resources/xlsx/analysis/stat_party_branch_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxkj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea-workspace\owip\src\main\resources\xlsx\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -141,10 +141,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -158,10 +158,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,12 +444,12 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
     <col min="2" max="5" width="8.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
     <col min="7" max="9" width="8.42578125" style="3" customWidth="1"/>
@@ -462,43 +462,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
@@ -535,9 +535,9 @@
       <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -596,14 +596,14 @@
     <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1" bottom="1" header="0.5" footer="0.5"/>
